--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23313"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="354" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{236DDEE9-3CBE-4E5E-B87B-D7ED82219118}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B69E7C9A-883B-4E14-9854-041BE11BFD48}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="134">
   <si>
     <t>改定履歴</t>
   </si>
@@ -49,6 +49,63 @@
   </si>
   <si>
     <t>alcoder</t>
+  </si>
+  <si>
+    <t>初回データベース定義書完成</t>
+  </si>
+  <si>
+    <t>takumi</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>createにNOT NULLの追加,外部キーの追加</t>
+  </si>
+  <si>
+    <t>vercharの長さを仕様のものに変更</t>
+  </si>
+  <si>
+    <t>create_updateにその他の設定を追加</t>
+  </si>
+  <si>
+    <t>期限をvarcharからtimestampに変更</t>
+  </si>
+  <si>
+    <t>delete_flag,complete_flagをis_delete,is_completeに変更</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>create_updateにその他の設定を追加,varcharの長さを仕様のものに変更,createにNOT NULLの追加</t>
+  </si>
+  <si>
+    <t>delete_flagをis_deleteに変更,外部キーの追加</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>datetimeからtimestampに変更,NOT NULLの追加</t>
+  </si>
+  <si>
+    <t>chatrooms</t>
+  </si>
+  <si>
+    <t>file_send_allowed_flag,delete_flag,direct_chat_flagからis_file_sendeble,is_delete,is_direct_chatに変更</t>
+  </si>
+  <si>
+    <t>varcharの長さを仕様のものに変更,createにNOT NULLの追加,外部キーの追加、その他の設定を追加</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>work_number,mobile_numberからwork_phone_number,mobile_phone_numberに変更</t>
+  </si>
+  <si>
+    <t>varcharの長さを仕様のものに変更,createにNOT NULLの追加,その他の設定を追加</t>
   </si>
   <si>
     <t>table_names</t>
@@ -588,9 +645,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>ユーザー情報の登録</t>
   </si>
   <si>
@@ -610,6 +664,12 @@
   </si>
   <si>
     <t>A_I</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>メールアドレス</t>
@@ -636,19 +696,19 @@
     <t>電話番号(勤務先)</t>
   </si>
   <si>
-    <t>work_number</t>
+    <t>work_phone_number</t>
   </si>
   <si>
     <t>電話番号(携帯)</t>
   </si>
   <si>
-    <t>mobile_number</t>
+    <t>mobile_phone_number</t>
   </si>
   <si>
     <t>論理削除フラグ</t>
   </si>
   <si>
-    <t>delete_flag</t>
+    <t>is_delete</t>
   </si>
   <si>
     <t>boolean</t>
@@ -678,9 +738,6 @@
     <t>on update current_timestamp</t>
   </si>
   <si>
-    <t>chatrooms</t>
-  </si>
-  <si>
     <t>チャットルームの情報</t>
   </si>
   <si>
@@ -688,9 +745,6 @@
   </si>
   <si>
     <t>チャット名</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>チャット概要</t>
@@ -702,13 +756,13 @@
     <t>ファイル送信可フラグ</t>
   </si>
   <si>
-    <t>file_send_allowed_flag</t>
+    <t>is_file_sendable</t>
   </si>
   <si>
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>direct_chat_flag</t>
+    <t>is_direct_chat</t>
   </si>
   <si>
     <t>作成者id</t>
@@ -724,9 +778,6 @@
   </si>
   <si>
     <t>update_date_user_id</t>
-  </si>
-  <si>
-    <t>rooms</t>
   </si>
   <si>
     <t>中間テーブル</t>
@@ -745,9 +796,6 @@
   </si>
   <si>
     <t>参加日時</t>
-  </si>
-  <si>
-    <t>posts</t>
   </si>
   <si>
     <t>投稿内容</t>
@@ -769,9 +817,6 @@
   </si>
   <si>
     <t>投稿者id</t>
-  </si>
-  <si>
-    <t>tasks</t>
   </si>
   <si>
     <t>タスクの内容</t>
@@ -798,7 +843,7 @@
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>complete_flag</t>
+    <t>is_complete</t>
   </si>
 </sst>
 </file>
@@ -947,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1004,6 +1049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1224,7 +1270,9 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1333,10 +1381,16 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="7"/>
+      <c r="A4" s="30">
+        <v>44092</v>
+      </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1361,10 +1415,18 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1389,9 +1451,15 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1417,9 +1485,15 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1445,9 +1519,15 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1473,9 +1553,15 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1501,9 +1587,15 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1529,9 +1621,15 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1557,9 +1655,15 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="12.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1585,9 +1689,15 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1613,9 +1723,15 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="12.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1641,9 +1757,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="12.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1669,9 +1791,15 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="12.75">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2145,7 +2273,7 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="12.75">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2173,7 +2301,7 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="12.75">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2201,7 +2329,7 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="12.75">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2229,7 +2357,7 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="12.75">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -30121,7 +30249,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -30137,10 +30265,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -30156,10 +30284,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -30176,34 +30304,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
@@ -30215,26 +30343,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="23"/>
@@ -30247,20 +30375,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F6" s="15">
         <v>100</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -30275,13 +30403,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F7" s="15">
         <v>1000</v>
@@ -30301,13 +30429,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -30316,12 +30444,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="19" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
@@ -30333,18 +30461,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="18"/>
       <c r="H9" s="17" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -30359,20 +30487,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F10" s="15">
         <v>11</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="17" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -30387,18 +30515,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="18"/>
       <c r="H11" s="17" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -30413,20 +30541,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F12" s="15">
         <v>11</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -30451,10 +30579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30471,7 +30599,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -30485,10 +30613,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -30502,7 +30630,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -30518,64 +30646,64 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="18" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -30585,23 +30713,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F6" s="15">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -30611,20 +30739,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F7" s="15">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -30637,19 +30765,21 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F8" s="15">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -30661,19 +30791,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F9" s="15">
-        <v>255</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -30681,19 +30811,20 @@
     <row r="10" spans="1:11" ht="12.75">
       <c r="A10" s="23"/>
       <c r="B10" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F10" s="15">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="17"/>
@@ -30704,26 +30835,25 @@
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="23"/>
       <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F11" s="15">
+        <v>13</v>
+      </c>
+      <c r="G11" s="18"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
       <c r="A12" s="23"/>
@@ -30732,19 +30862,21 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="14"/>
@@ -30756,22 +30888,22 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18" t="s">
-        <v>77</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="14"/>
     </row>
@@ -30779,26 +30911,39 @@
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+        <v>27</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -30809,10 +30954,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -30826,7 +30971,9 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="23"/>
@@ -30839,110 +30986,100 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="23"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="23"/>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="15">
-        <v>11</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="18" t="s">
-        <v>55</v>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F20" s="15">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="23"/>
       <c r="B21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F21" s="15">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
@@ -30950,22 +31087,22 @@
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="18">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -30973,22 +31110,24 @@
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="23"/>
       <c r="B23" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="18">
         <v>0</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
@@ -30996,22 +31135,24 @@
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="23"/>
       <c r="B24" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="18">
         <v>0</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -31019,22 +31160,24 @@
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="23"/>
       <c r="B25" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="17"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -31042,51 +31185,51 @@
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="23"/>
       <c r="B26" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="15">
-        <v>11</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="23"/>
       <c r="B27" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="F27" s="15">
+        <v>11</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="I27" s="18" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
@@ -31094,54 +31237,66 @@
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="15">
-        <v>11</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="18"/>
+      <c r="H28" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="B29" s="5">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="15">
+        <v>11</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
@@ -31152,10 +31307,10 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="23" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -31169,11 +31324,11 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="23"/>
-      <c r="B32" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
@@ -31184,111 +31339,103 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="23"/>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B33" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="23"/>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="15">
-        <v>11</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="18"/>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F35" s="15">
         <v>11</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="13"/>
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="15">
+        <v>11</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
@@ -31296,26 +31443,36 @@
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+        <v>27</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
@@ -31326,10 +31483,10 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="23" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -31343,7 +31500,9 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="23"/>
-      <c r="B40" s="28"/>
+      <c r="B40" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="23"/>
@@ -31356,137 +31515,127 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="23"/>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="23"/>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="15">
-        <v>11</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="18" t="s">
-        <v>55</v>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="23"/>
       <c r="B43" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F43" s="15">
         <v>11</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F44" s="15">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="23"/>
       <c r="B45" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F45" s="15">
-        <v>255</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="18"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
@@ -31494,22 +31643,22 @@
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="23"/>
       <c r="B46" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="18">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="F46" s="15">
+        <v>100</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
@@ -31517,22 +31666,24 @@
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="23"/>
       <c r="B47" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D47" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="17"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
@@ -31540,51 +31691,51 @@
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="15">
-        <v>11</v>
-      </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="F49" s="15">
+        <v>11</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="I49" s="18" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
@@ -31592,54 +31743,66 @@
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D50" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="15">
-        <v>11</v>
-      </c>
-      <c r="G50" s="18"/>
       <c r="H50" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
+      <c r="B51" s="5">
+        <v>9</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="15">
+        <v>11</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+        <v>27</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
@@ -31651,7 +31814,7 @@
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="23"/>
       <c r="B53" s="28" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
@@ -31665,188 +31828,176 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="23"/>
-      <c r="B54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B54" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="23"/>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="15">
-        <v>11</v>
-      </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="18" t="s">
-        <v>55</v>
+      <c r="B55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="23"/>
       <c r="B56" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F56" s="15">
         <v>11</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="23"/>
       <c r="B57" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F57" s="15">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I57" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="23"/>
       <c r="B58" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F58" s="15">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>91</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="23"/>
       <c r="B59" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F59" s="15">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="G59" s="18"/>
-      <c r="H59" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I59" s="18"/>
+      <c r="H59" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="J59" s="18"/>
       <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="23"/>
       <c r="B60" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="18">
-        <v>0</v>
-      </c>
+      <c r="G60" s="18"/>
       <c r="H60" s="17"/>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
@@ -31855,22 +32006,24 @@
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="23"/>
       <c r="B61" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="18">
         <v>0</v>
       </c>
-      <c r="H61" s="17"/>
+      <c r="H61" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18"/>
@@ -31878,22 +32031,24 @@
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="23"/>
       <c r="B62" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D62" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+      <c r="H62" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H62" s="17"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
@@ -31901,51 +32056,51 @@
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="23"/>
       <c r="B63" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="15">
-        <v>11</v>
-      </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="23"/>
       <c r="B64" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="F64" s="15">
+        <v>11</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="I64" s="18" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
@@ -31953,59 +32108,86 @@
     <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="23"/>
       <c r="B65" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D65" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F65" s="15">
-        <v>11</v>
-      </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J65" s="18"/>
+      <c r="H65" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
+      <c r="B66" s="5">
+        <v>11</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="15">
+        <v>11</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23313"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="487" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B69E7C9A-883B-4E14-9854-041BE11BFD48}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17F01EB9-04D9-4AA4-ABC7-019CCE0FC3AB}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="記入例" sheetId="3" r:id="rId2"/>
-    <sheet name="テンプレート" sheetId="2" r:id="rId3"/>
+    <sheet name="記入例" sheetId="3" r:id="rId1"/>
+    <sheet name="テンプレート" sheetId="2" r:id="rId2"/>
+    <sheet name="改訂履歴" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -28,84 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="134">
-  <si>
-    <t>改定履歴</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="140">
   <si>
     <t>テーブル名</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>編集者</t>
-  </si>
-  <si>
-    <t>テンプレート作成</t>
-  </si>
-  <si>
-    <t>alcoder</t>
-  </si>
-  <si>
-    <t>初回データベース定義書完成</t>
-  </si>
-  <si>
-    <t>takumi</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>createにNOT NULLの追加,外部キーの追加</t>
-  </si>
-  <si>
-    <t>vercharの長さを仕様のものに変更</t>
-  </si>
-  <si>
-    <t>create_updateにその他の設定を追加</t>
-  </si>
-  <si>
-    <t>期限をvarcharからtimestampに変更</t>
-  </si>
-  <si>
-    <t>delete_flag,complete_flagをis_delete,is_completeに変更</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>create_updateにその他の設定を追加,varcharの長さを仕様のものに変更,createにNOT NULLの追加</t>
-  </si>
-  <si>
-    <t>delete_flagをis_deleteに変更,外部キーの追加</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>datetimeからtimestampに変更,NOT NULLの追加</t>
-  </si>
-  <si>
-    <t>chatrooms</t>
-  </si>
-  <si>
-    <t>file_send_allowed_flag,delete_flag,direct_chat_flagからis_file_sendeble,is_delete,is_direct_chatに変更</t>
-  </si>
-  <si>
-    <t>varcharの長さを仕様のものに変更,createにNOT NULLの追加,外部キーの追加、その他の設定を追加</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>work_number,mobile_numberからwork_phone_number,mobile_phone_numberに変更</t>
-  </si>
-  <si>
-    <t>varcharの長さを仕様のものに変更,createにNOT NULLの追加,その他の設定を追加</t>
   </si>
   <si>
     <t>table_names</t>
@@ -645,6 +570,9 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>ユーザー情報の登録</t>
   </si>
   <si>
@@ -708,7 +636,7 @@
     <t>論理削除フラグ</t>
   </si>
   <si>
-    <t>is_delete</t>
+    <t>is_deleted</t>
   </si>
   <si>
     <t>boolean</t>
@@ -736,6 +664,9 @@
   </si>
   <si>
     <t>on update current_timestamp</t>
+  </si>
+  <si>
+    <t>chatrooms</t>
   </si>
   <si>
     <t>チャットルームの情報</t>
@@ -777,7 +708,10 @@
     <t>更新者id</t>
   </si>
   <si>
-    <t>update_date_user_id</t>
+    <t>update_user_id</t>
+  </si>
+  <si>
+    <t>rooms</t>
   </si>
   <si>
     <t>中間テーブル</t>
@@ -796,6 +730,9 @@
   </si>
   <si>
     <t>参加日時</t>
+  </si>
+  <si>
+    <t>posts</t>
   </si>
   <si>
     <t>投稿内容</t>
@@ -819,6 +756,9 @@
     <t>投稿者id</t>
   </si>
   <si>
+    <t>tasks</t>
+  </si>
+  <si>
     <t>タスクの内容</t>
   </si>
   <si>
@@ -831,19 +771,97 @@
     <t>タスク担当者</t>
   </si>
   <si>
-    <t>task_user</t>
+    <t>task_representative</t>
   </si>
   <si>
     <t>期限</t>
   </si>
   <si>
-    <t>time_limit</t>
+    <t>deadline</t>
   </si>
   <si>
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>is_complete</t>
+    <t>is_completed</t>
+  </si>
+  <si>
+    <t>改定履歴</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>編集者</t>
+  </si>
+  <si>
+    <t>テンプレート作成</t>
+  </si>
+  <si>
+    <t>alcoder</t>
+  </si>
+  <si>
+    <t>初回データベース定義書完成</t>
+  </si>
+  <si>
+    <t>takumi</t>
+  </si>
+  <si>
+    <t>createにNOT NULLの追加,外部キーの追加</t>
+  </si>
+  <si>
+    <t>vercharの長さを仕様のものに変更</t>
+  </si>
+  <si>
+    <t>create_updateにその他の設定を追加</t>
+  </si>
+  <si>
+    <t>期限をvarcharからtimestampに変更</t>
+  </si>
+  <si>
+    <t>delete_flag,complete_flagをis_delete,is_completeに変更</t>
+  </si>
+  <si>
+    <t>create_updateにその他の設定を追加,varcharの長さを仕様のものに変更,createにNOT NULLの追加</t>
+  </si>
+  <si>
+    <t>delete_flagをis_deleteに変更,外部キーの追加</t>
+  </si>
+  <si>
+    <t>datetimeからtimestampに変更,NOT NULLの追加</t>
+  </si>
+  <si>
+    <t>file_send_allowed_flag,delete_flag,direct_chat_flagからis_file_sendeble,is_delete,is_direct_chatに変更</t>
+  </si>
+  <si>
+    <t>varcharの長さを仕様のものに変更,createにNOT NULLの追加,外部キーの追加、その他の設定を追加</t>
+  </si>
+  <si>
+    <t>work_number,mobile_numberからwork_phone_number,mobile_phone_numberに変更</t>
+  </si>
+  <si>
+    <t>varcharの長さを仕様のものに変更,createにNOT NULLの追加,その他の設定を追加</t>
+  </si>
+  <si>
+    <t>is_deleteからis_deletedに変更</t>
+  </si>
+  <si>
+    <t>is_completeからis_completedに変更</t>
+  </si>
+  <si>
+    <t>boooleanのデフォルトを0からFALSEに変更</t>
+  </si>
+  <si>
+    <t>update_date_user_idをupdate_user_idに変更</t>
+  </si>
+  <si>
+    <t>task_userをtask_representativeに変更</t>
+  </si>
+  <si>
+    <t>time_limitをdeadlineに変更</t>
   </si>
 </sst>
 </file>
@@ -1038,6 +1056,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1049,7 +1068,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1264,14 +1282,1986 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="J8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="24"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="24"/>
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="24"/>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15">
+        <v>100</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="24"/>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="24"/>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="24"/>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="24"/>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15">
+        <v>11</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="24"/>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="24"/>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="15">
+        <v>11</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="24"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="24"/>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="15">
+        <v>100</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="24"/>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="15">
+        <v>100</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="24"/>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="15">
+        <v>100</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="24"/>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="24"/>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="15">
+        <v>13</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="24"/>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="15">
+        <v>13</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="24"/>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="15">
+        <v>11</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="15">
+        <v>100</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="5">
+        <v>6</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="5">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="15">
+        <v>11</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="15">
+        <v>11</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="15">
+        <v>11</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="15">
+        <v>11</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="15">
+        <v>11</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="15">
+        <v>11</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A45" s="24"/>
+      <c r="B45" s="5">
+        <v>3</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="24"/>
+      <c r="B46" s="5">
+        <v>4</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="15">
+        <v>100</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="24"/>
+      <c r="B47" s="5">
+        <v>5</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5">
+        <v>6</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="5">
+        <v>7</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="15">
+        <v>11</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="5">
+        <v>8</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>9</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="15">
+        <v>11</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="24"/>
+      <c r="B53" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="24"/>
+      <c r="B54" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="24"/>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A56" s="24"/>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="15">
+        <v>11</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A57" s="24"/>
+      <c r="B57" s="5">
+        <v>2</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="15">
+        <v>11</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A58" s="24"/>
+      <c r="B58" s="5">
+        <v>3</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A59" s="24"/>
+      <c r="B59" s="5">
+        <v>4</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="15">
+        <v>11</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A60" s="24"/>
+      <c r="B60" s="5">
+        <v>5</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A61" s="24"/>
+      <c r="B61" s="5">
+        <v>6</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A62" s="24"/>
+      <c r="B62" s="5">
+        <v>7</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A63" s="24"/>
+      <c r="B63" s="5">
+        <v>8</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A64" s="24"/>
+      <c r="B64" s="5">
+        <v>9</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="15">
+        <v>11</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A65" s="24"/>
+      <c r="B65" s="5">
+        <v>10</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A66" s="24"/>
+      <c r="B66" s="5">
+        <v>11</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="15">
+        <v>11</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B36"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1282,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1312,16 +3302,16 @@
     </row>
     <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1352,10 +3342,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="21" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1381,15 +3371,15 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="30">
+      <c r="A4" s="23">
         <v>44092</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1419,13 +3409,13 @@
         <v>44092</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1455,12 +3445,14 @@
         <v>44092</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1489,12 +3481,14 @@
         <v>44092</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1523,12 +3517,14 @@
         <v>44092</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1557,12 +3553,14 @@
         <v>44092</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1591,12 +3589,14 @@
         <v>44092</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1625,12 +3625,14 @@
         <v>44092</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1659,12 +3661,14 @@
         <v>44092</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1693,12 +3697,14 @@
         <v>44092</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1727,12 +3733,14 @@
         <v>44092</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1761,12 +3769,14 @@
         <v>44092</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1795,12 +3805,14 @@
         <v>44092</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1825,10 +3837,18 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="12.75">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1853,10 +3873,18 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="12.75">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1881,10 +3909,18 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="12.75">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1909,10 +3945,18 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="12.75">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1937,10 +3981,18 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="12.75">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1965,10 +4017,18 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="12.75">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1993,10 +4053,18 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2021,10 +4089,18 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="12.75">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2049,10 +4125,18 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="12.75">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2077,10 +4161,18 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="12.75">
-      <c r="A26" s="8"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2105,10 +4197,18 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="12.75">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2133,10 +4233,18 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="12.75">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2161,10 +4269,18 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="12.75">
-      <c r="A29" s="8"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2189,10 +4305,18 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="12.75">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -30221,1976 +32345,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="23"/>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="23"/>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="15">
-        <v>11</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="23"/>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="15">
-        <v>100</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="23"/>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="23"/>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="15">
-        <v>11</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="23"/>
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="23"/>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="15">
-        <v>11</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="23"/>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="15">
-        <v>11</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="23"/>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="15">
-        <v>100</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="23"/>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="15">
-        <v>100</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="23"/>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="15">
-        <v>100</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="15">
-        <v>13</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="23"/>
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="15">
-        <v>13</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="23"/>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="15">
-        <v>11</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="15">
-        <v>100</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="5">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="5">
-        <v>4</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="5">
-        <v>6</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="5">
-        <v>7</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="5">
-        <v>8</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="15">
-        <v>11</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5">
-        <v>10</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="15">
-        <v>11</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="15">
-        <v>11</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="15">
-        <v>11</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="5">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A38" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
-      <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="15">
-        <v>11</v>
-      </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="5">
-        <v>2</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="15">
-        <v>11</v>
-      </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
-      <c r="B45" s="5">
-        <v>3</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
-      <c r="B46" s="5">
-        <v>4</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="15">
-        <v>100</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
-      <c r="B47" s="5">
-        <v>5</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="5">
-        <v>6</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="5">
-        <v>7</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="15">
-        <v>11</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="5">
-        <v>8</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K50" s="18"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="5">
-        <v>9</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="15">
-        <v>11</v>
-      </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="23"/>
-      <c r="B53" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
-      <c r="B54" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="23"/>
-      <c r="B55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="15">
-        <v>11</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="23"/>
-      <c r="B57" s="5">
-        <v>2</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="15">
-        <v>11</v>
-      </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
-      <c r="B58" s="5">
-        <v>3</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A59" s="23"/>
-      <c r="B59" s="5">
-        <v>4</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="15">
-        <v>11</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
-      <c r="B60" s="5">
-        <v>5</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A61" s="23"/>
-      <c r="B61" s="5">
-        <v>6</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="18">
-        <v>0</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
-      <c r="B62" s="5">
-        <v>7</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="18">
-        <v>0</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A63" s="23"/>
-      <c r="B63" s="5">
-        <v>8</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A64" s="23"/>
-      <c r="B64" s="5">
-        <v>9</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" s="15">
-        <v>11</v>
-      </c>
-      <c r="G64" s="18"/>
-      <c r="H64" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A65" s="23"/>
-      <c r="B65" s="5">
-        <v>10</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A66" s="23"/>
-      <c r="B66" s="5">
-        <v>11</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="15">
-        <v>11</v>
-      </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B39:D39"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="573" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17F01EB9-04D9-4AA4-ABC7-019CCE0FC3AB}"/>
+  <xr:revisionPtr revIDLastSave="672" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAABB6A0-3783-48A9-A9F9-ACEAC3353AF9}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記入例" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="155">
   <si>
     <t>テーブル名</t>
   </si>
@@ -642,6 +642,12 @@
     <t>boolean</t>
   </si>
   <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>trueでユーザー情報の削除</t>
+  </si>
+  <si>
     <t>作成日時</t>
   </si>
   <si>
@@ -690,10 +696,19 @@
     <t>is_file_sendable</t>
   </si>
   <si>
+    <t>trueでファイル送信可</t>
+  </si>
+  <si>
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
     <t>is_direct_chat</t>
+  </si>
+  <si>
+    <t>trueでダイレクトチャット</t>
+  </si>
+  <si>
+    <t>trueでチャットルームの削除</t>
   </si>
   <si>
     <t>作成者id</t>
@@ -747,7 +762,10 @@
     <t>添付ファイル</t>
   </si>
   <si>
-    <t>file</t>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>trueで投稿の削除</t>
   </si>
   <si>
     <t>投稿日時</t>
@@ -771,7 +789,7 @@
     <t>タスク担当者</t>
   </si>
   <si>
-    <t>task_representative</t>
+    <t>assign_member</t>
   </si>
   <si>
     <t>期限</t>
@@ -784,6 +802,12 @@
   </si>
   <si>
     <t>is_completed</t>
+  </si>
+  <si>
+    <t>trueでタスク完了</t>
+  </si>
+  <si>
+    <t>trueでタスクの削除</t>
   </si>
   <si>
     <t>改定履歴</t>
@@ -862,6 +886,27 @@
   </si>
   <si>
     <t>time_limitをdeadlineに変更</t>
+  </si>
+  <si>
+    <t>A_Iを備考からその他の設定に変更</t>
+  </si>
+  <si>
+    <t>is_deletedの備考を追加</t>
+  </si>
+  <si>
+    <t>is_file_sendableの備考を追加</t>
+  </si>
+  <si>
+    <t>is_direct_chatの備考を追加</t>
+  </si>
+  <si>
+    <t>is_completedの備考を追加</t>
+  </si>
+  <si>
+    <t>task_representativeをassign_memberに変更</t>
+  </si>
+  <si>
+    <t>fileをfile_nameに変更</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1068,6 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1639,8 +1685,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1759,10 +1805,10 @@
       <c r="I5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="13" t="s">
         <v>49</v>
       </c>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
       <c r="A6" s="24"/>
@@ -1893,7 +1939,7 @@
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="24"/>
       <c r="B11" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>61</v>
@@ -1929,15 +1975,17 @@
         <v>65</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="22" t="b">
-        <v>0</v>
+      <c r="G12" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
@@ -1946,17 +1994,17 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>47</v>
@@ -1966,39 +2014,35 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A14" s="24"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -2012,10 +2056,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -2028,9 +2072,11 @@
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B17" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -2043,7 +2089,9 @@
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -2094,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>45</v>
@@ -2112,10 +2160,10 @@
       <c r="I20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="24"/>
@@ -2123,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>51</v>
@@ -2148,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>54</v>
@@ -2171,24 +2219,26 @@
         <v>4</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>65</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="22" t="b">
-        <v>0</v>
+      <c r="G23" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="18" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="24"/>
@@ -2196,24 +2246,26 @@
         <v>5</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="22" t="b">
-        <v>0</v>
+      <c r="G24" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="K24" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="24"/>
@@ -2230,15 +2282,17 @@
         <v>65</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="22" t="b">
-        <v>0</v>
+      <c r="G25" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="K25" s="18" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="24"/>
@@ -2246,17 +2300,17 @@
         <v>7</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>47</v>
@@ -2271,10 +2325,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>46</v>
@@ -2287,7 +2341,7 @@
         <v>47</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
@@ -2298,39 +2352,37 @@
         <v>9</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A29" s="24"/>
       <c r="B29" s="5">
         <v>10</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>46</v>
@@ -2343,15 +2395,13 @@
         <v>47</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -2364,11 +2414,11 @@
       <c r="K30" s="24"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>4</v>
+      <c r="A31" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -2381,9 +2431,11 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="24"/>
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B32" s="29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -2396,9 +2448,11 @@
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
+      <c r="A33" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="B33" s="30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -2452,7 +2506,7 @@
         <v>44</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>46</v>
@@ -2465,7 +2519,7 @@
         <v>47</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="18"/>
@@ -2476,10 +2530,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>46</v>
@@ -2492,30 +2546,28 @@
         <v>47</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A37" s="24"/>
       <c r="B37" s="5">
         <v>3</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>47</v>
@@ -2525,9 +2577,7 @@
       <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A38" s="24" t="s">
-        <v>2</v>
-      </c>
+      <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -2540,11 +2590,11 @@
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>4</v>
+      <c r="A39" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -2557,9 +2607,11 @@
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="24"/>
+      <c r="A40" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="B40" s="29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -2572,7 +2624,9 @@
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="24"/>
+      <c r="A41" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -2623,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>45</v>
@@ -2641,10 +2695,10 @@
       <c r="I43" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="18" t="s">
+      <c r="J43" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="K43" s="18"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="24"/>
@@ -2652,10 +2706,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>46</v>
@@ -2668,7 +2722,7 @@
         <v>47</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
@@ -2679,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>54</v>
@@ -2704,10 +2758,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>54</v>
@@ -2736,15 +2790,17 @@
         <v>65</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="22" t="b">
-        <v>0</v>
+      <c r="G47" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
+      <c r="K47" s="18" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
@@ -2752,17 +2808,17 @@
         <v>6</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>47</v>
@@ -2777,10 +2833,10 @@
         <v>7</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>46</v>
@@ -2793,7 +2849,7 @@
         <v>47</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
@@ -2804,39 +2860,37 @@
         <v>8</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>47</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="24" t="s">
-        <v>0</v>
-      </c>
+      <c r="A51" s="24"/>
       <c r="B51" s="5">
         <v>9</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>46</v>
@@ -2849,15 +2903,13 @@
         <v>47</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="24" t="s">
-        <v>2</v>
-      </c>
+      <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -2870,9 +2922,11 @@
       <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="24"/>
+      <c r="A53" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="B53" s="29" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
@@ -2885,9 +2939,11 @@
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="24"/>
+      <c r="A54" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="B54" s="29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
@@ -2938,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>45</v>
@@ -2956,10 +3012,10 @@
       <c r="I56" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="18" t="s">
+      <c r="J56" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="K56" s="18"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="24"/>
@@ -2967,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>46</v>
@@ -2983,7 +3039,7 @@
         <v>47</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
@@ -2994,10 +3050,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>54</v>
@@ -3019,10 +3075,10 @@
         <v>4</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>46</v>
@@ -3035,7 +3091,7 @@
         <v>47</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="18"/>
@@ -3046,13 +3102,13 @@
         <v>5</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="18"/>
@@ -3067,16 +3123,16 @@
         <v>6</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>65</v>
       </c>
       <c r="F61" s="15"/>
-      <c r="G61" s="22" t="b">
+      <c r="G61" s="18" t="b">
         <v>0</v>
       </c>
       <c r="H61" s="16" t="s">
@@ -3084,7 +3140,9 @@
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
+      <c r="K61" s="18" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="24"/>
@@ -3101,15 +3159,17 @@
         <v>65</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="22" t="b">
-        <v>0</v>
+      <c r="G62" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="H62" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
+      <c r="K62" s="18" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="24"/>
@@ -3117,17 +3177,17 @@
         <v>8</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H63" s="16" t="s">
         <v>47</v>
@@ -3142,10 +3202,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>46</v>
@@ -3158,7 +3218,7 @@
         <v>47</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
@@ -3169,24 +3229,24 @@
         <v>10</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K65" s="18"/>
     </row>
@@ -3196,10 +3256,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>46</v>
@@ -3212,7 +3272,7 @@
         <v>47</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
@@ -3260,8 +3320,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3272,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3302,16 +3362,16 @@
     </row>
     <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3342,10 +3402,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="21" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3376,10 +3436,10 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3409,13 +3469,13 @@
         <v>44092</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3445,13 +3505,13 @@
         <v>44092</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3481,13 +3541,13 @@
         <v>44092</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3517,13 +3577,13 @@
         <v>44092</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3553,13 +3613,13 @@
         <v>44092</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3589,13 +3649,13 @@
         <v>44092</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3625,13 +3685,13 @@
         <v>44092</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3661,13 +3721,13 @@
         <v>44092</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3697,13 +3757,13 @@
         <v>44092</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3733,13 +3793,13 @@
         <v>44092</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3772,10 +3832,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3808,10 +3868,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3844,10 +3904,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3877,13 +3937,13 @@
         <v>44093</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3913,13 +3973,13 @@
         <v>44093</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3949,13 +4009,13 @@
         <v>44093</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3985,13 +4045,13 @@
         <v>44093</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4024,10 +4084,10 @@
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4057,13 +4117,13 @@
         <v>44093</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4093,13 +4153,13 @@
         <v>44093</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4129,13 +4189,13 @@
         <v>44093</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4165,13 +4225,13 @@
         <v>44093</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4201,13 +4261,13 @@
         <v>44093</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4237,13 +4297,13 @@
         <v>44093</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4273,13 +4333,13 @@
         <v>44093</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4309,13 +4369,13 @@
         <v>44093</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4341,10 +4401,18 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="12.75">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4369,10 +4437,18 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="12.75">
-      <c r="A32" s="8"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4397,10 +4473,18 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="12.75">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -4425,10 +4509,18 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="12.75">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4453,10 +4545,18 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="12.75">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4481,10 +4581,18 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="12.75">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4509,10 +4617,18 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="12.75">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4537,10 +4653,18 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="12.75">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -4565,10 +4689,18 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="12.75">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4593,10 +4725,18 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="12.75">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4621,10 +4761,18 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="12.75">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4649,10 +4797,18 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="12.75">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4677,10 +4833,18 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="12.75">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="672" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAABB6A0-3783-48A9-A9F9-ACEAC3353AF9}"/>
+  <xr:revisionPtr revIDLastSave="766" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF952BA4-9DAC-4A2C-8992-A329490E61F7}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記入例" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="167">
   <si>
     <t>テーブル名</t>
   </si>
@@ -591,7 +591,7 @@
     <t>PK</t>
   </si>
   <si>
-    <t>A_I</t>
+    <t>auto_increment</t>
   </si>
   <si>
     <t>ユーザー名</t>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>self_introduction</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
   <si>
     <t>電話番号(勤務先)</t>
@@ -651,10 +654,10 @@
     <t>作成日時</t>
   </si>
   <si>
-    <t>create_date</t>
+    <t>create_datetime</t>
   </si>
   <si>
-    <t>datetime</t>
+    <t>timestamp</t>
   </si>
   <si>
     <t>current_timestamp</t>
@@ -663,10 +666,7 @@
     <t>更新日時</t>
   </si>
   <si>
-    <t>update_date</t>
-  </si>
-  <si>
-    <t>timestamp</t>
+    <t>update_datetime</t>
   </si>
   <si>
     <t>on update current_timestamp</t>
@@ -798,6 +798,9 @@
     <t>deadline</t>
   </si>
   <si>
+    <t>timestampではDEFAULT NULLを指定できなかったためNULLを許容するよう定義した。</t>
+  </si>
+  <si>
     <t>完了フラグ</t>
   </si>
   <si>
@@ -908,12 +911,45 @@
   <si>
     <t>fileをfile_nameに変更</t>
   </si>
+  <si>
+    <t>self_introductionのデフォルト値にNULLを追加</t>
+  </si>
+  <si>
+    <t>work_phone_numberのデフォルト値にNULLを追加</t>
+  </si>
+  <si>
+    <t>mobile_phone_numberのデフォルト値にNULLを追加</t>
+  </si>
+  <si>
+    <t>overviewのデフォルト値にNULLを追加</t>
+  </si>
+  <si>
+    <t>file_nameのデフォルト値にNULLを追加</t>
+  </si>
+  <si>
+    <t>deadlineのデフォルト値にNULLを追加</t>
+  </si>
+  <si>
+    <t>deadlineにNULLを許容するよう定義した。</t>
+  </si>
+  <si>
+    <t>create_dateからcreate_datetimeに変更</t>
+  </si>
+  <si>
+    <t>update_dateからupdate_datetimeに変更</t>
+  </si>
+  <si>
+    <t>create_dateのdatetimeをtimestampに変更</t>
+  </si>
+  <si>
+    <t>A_Iからauto_incrementに変更</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -992,6 +1028,12 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1055,7 +1097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1104,6 +1146,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1113,7 +1156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1352,11 +1395,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -1371,11 +1414,11 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -1390,11 +1433,11 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -1685,8 +1728,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1702,11 +1745,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -1719,11 +1762,11 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -1736,9 +1779,9 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -1805,7 +1848,7 @@
       <c r="I5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="32" t="s">
         <v>49</v>
       </c>
       <c r="K5" s="18"/>
@@ -1906,7 +1949,9 @@
       <c r="F9" s="15">
         <v>1000</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1919,10 +1964,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>54</v>
@@ -1930,7 +1975,9 @@
       <c r="F10" s="15">
         <v>13</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -1942,10 +1989,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>54</v>
@@ -1953,7 +2000,9 @@
       <c r="F11" s="15">
         <v>13</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1966,17 +2015,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="31" t="s">
-        <v>66</v>
+      <c r="G12" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>47</v>
@@ -1984,7 +2033,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
@@ -1994,17 +2043,17 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>47</v>
@@ -2020,17 +2069,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>47</v>
@@ -2058,11 +2107,11 @@
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -2075,11 +2124,11 @@
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -2092,9 +2141,9 @@
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -2160,7 +2209,7 @@
       <c r="I20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="32" t="s">
         <v>49</v>
       </c>
       <c r="K20" s="18"/>
@@ -2207,7 +2256,9 @@
       <c r="F22" s="15">
         <v>1000</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="H22" s="15"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -2225,11 +2276,11 @@
         <v>83</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="31" t="s">
-        <v>66</v>
+      <c r="G23" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>47</v>
@@ -2252,11 +2303,11 @@
         <v>86</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="31" t="s">
-        <v>66</v>
+      <c r="G24" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>47</v>
@@ -2273,17 +2324,17 @@
         <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="31" t="s">
-        <v>66</v>
+      <c r="G25" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>47</v>
@@ -2300,17 +2351,17 @@
         <v>7</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="13" t="s">
         <v>70</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>47</v>
@@ -2352,17 +2403,17 @@
         <v>9</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>47</v>
@@ -2417,11 +2468,11 @@
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -2434,11 +2485,11 @@
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
@@ -2451,11 +2502,11 @@
       <c r="A33" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -2560,14 +2611,14 @@
         <v>100</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>47</v>
@@ -2593,11 +2644,11 @@
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -2610,11 +2661,11 @@
       <c r="A40" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -2627,9 +2678,9 @@
       <c r="A41" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2695,7 +2746,7 @@
       <c r="I43" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="32" t="s">
         <v>49</v>
       </c>
       <c r="K43" s="18"/>
@@ -2769,7 +2820,9 @@
       <c r="F46" s="15">
         <v>100</v>
       </c>
-      <c r="G46" s="18"/>
+      <c r="G46" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -2781,17 +2834,17 @@
         <v>5</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="31" t="s">
-        <v>66</v>
+      <c r="G47" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>47</v>
@@ -2811,14 +2864,14 @@
         <v>108</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="13" t="s">
         <v>70</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>47</v>
@@ -2860,17 +2913,17 @@
         <v>8</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>47</v>
@@ -2925,11 +2978,11 @@
       <c r="A53" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -2942,11 +2995,11 @@
       <c r="A54" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -3012,7 +3065,7 @@
       <c r="I56" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J56" s="18" t="s">
+      <c r="J56" s="32" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="18"/>
@@ -3108,14 +3161,20 @@
         <v>117</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="18"/>
+      <c r="G60" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="H60" s="17"/>
       <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
+      <c r="J60" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="24"/>
@@ -3123,13 +3182,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="18" t="b">
@@ -3141,7 +3200,7 @@
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
@@ -3150,17 +3209,17 @@
         <v>7</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="31" t="s">
-        <v>66</v>
+      <c r="G62" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="H62" s="16" t="s">
         <v>47</v>
@@ -3168,7 +3227,7 @@
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
@@ -3177,17 +3236,17 @@
         <v>8</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="13" t="s">
         <v>70</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H63" s="16" t="s">
         <v>47</v>
@@ -3229,17 +3288,17 @@
         <v>10</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>47</v>
@@ -3292,6 +3351,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B53:D53"/>
@@ -3301,11 +3365,6 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3320,7 +3379,7 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -3332,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3362,16 +3421,16 @@
     </row>
     <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3402,10 +3461,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3436,10 +3495,10 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3472,10 +3531,10 @@
         <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3508,10 +3567,10 @@
         <v>110</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3544,10 +3603,10 @@
         <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3580,10 +3639,10 @@
         <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3616,10 +3675,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3652,10 +3711,10 @@
         <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3688,10 +3747,10 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3724,10 +3783,10 @@
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3760,10 +3819,10 @@
         <v>76</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3796,10 +3855,10 @@
         <v>76</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3832,10 +3891,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3868,10 +3927,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3904,10 +3963,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3940,10 +3999,10 @@
         <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3976,10 +4035,10 @@
         <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4012,10 +4071,10 @@
         <v>110</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4048,10 +4107,10 @@
         <v>110</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4084,10 +4143,10 @@
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4120,10 +4179,10 @@
         <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4156,10 +4215,10 @@
         <v>101</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4192,10 +4251,10 @@
         <v>110</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4228,10 +4287,10 @@
         <v>76</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4264,10 +4323,10 @@
         <v>101</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4300,10 +4359,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4336,10 +4395,10 @@
         <v>110</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4372,10 +4431,10 @@
         <v>110</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4408,10 +4467,10 @@
         <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -4444,10 +4503,10 @@
         <v>76</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -4480,10 +4539,10 @@
         <v>101</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4516,10 +4575,10 @@
         <v>110</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4552,10 +4611,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4588,10 +4647,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4624,10 +4683,10 @@
         <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4660,10 +4719,10 @@
         <v>76</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4696,10 +4755,10 @@
         <v>101</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4732,10 +4791,10 @@
         <v>110</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4768,10 +4827,10 @@
         <v>110</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4804,10 +4863,10 @@
         <v>110</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4840,10 +4899,10 @@
         <v>101</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4869,10 +4928,18 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="12.75">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4897,10 +4964,18 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="12.75">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="A45" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -4925,10 +5000,18 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="12.75">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -4953,10 +5036,18 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="12.75">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -4981,10 +5072,18 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="12.75">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -5009,10 +5108,18 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="12.75">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -5037,10 +5144,18 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="12.75">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -5065,10 +5180,18 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="12.75">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -5093,10 +5216,18 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="12.75">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -5121,10 +5252,18 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="12.75">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -5149,10 +5288,18 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="12.75">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5177,10 +5324,18 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="12.75">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -5205,10 +5360,18 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="12.75">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="A56" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -5233,10 +5396,18 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="12.75">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -5261,10 +5432,18 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="12.75">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -5289,10 +5468,18 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="12.75">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -5317,10 +5504,18 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="12.75">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="A60" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -5345,10 +5540,18 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="12.75">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="A61" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -5373,10 +5576,18 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="12.75">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="A62" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -5401,10 +5612,18 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="12.75">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -5429,10 +5648,18 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="12.75">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -5457,10 +5684,18 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="12.75">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -5485,10 +5720,18 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="12.75">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -5513,10 +5756,18 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="12.75">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="766" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF952BA4-9DAC-4A2C-8992-A329490E61F7}"/>
+  <xr:revisionPtr revIDLastSave="802" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83900F73-17EF-4A92-BFCE-011727CD130B}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="169">
   <si>
     <t>テーブル名</t>
   </si>
@@ -657,7 +657,7 @@
     <t>create_datetime</t>
   </si>
   <si>
-    <t>timestamp</t>
+    <t>datetime</t>
   </si>
   <si>
     <t>current_timestamp</t>
@@ -796,6 +796,9 @@
   </si>
   <si>
     <t>deadline</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
   <si>
     <t>timestampではDEFAULT NULLを指定できなかったためNULLを許容するよう定義した。</t>
@@ -944,6 +947,9 @@
   <si>
     <t>A_Iからauto_incrementに変更</t>
   </si>
+  <si>
+    <t>timestampからdatetimeに変更</t>
+  </si>
 </sst>
 </file>
 
@@ -1061,7 +1067,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1093,11 +1099,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1157,6 +1202,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1728,8 +1780,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2048,7 +2100,7 @@
       <c r="D13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="15"/>
@@ -2074,7 +2126,7 @@
       <c r="D14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="15"/>
@@ -2356,7 +2408,7 @@
       <c r="D26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="15"/>
@@ -2866,7 +2918,7 @@
       <c r="D48" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F48" s="15"/>
@@ -3161,7 +3213,7 @@
         <v>117</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="18" t="s">
@@ -3173,7 +3225,7 @@
         <v>49</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
@@ -3182,10 +3234,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>66</v>
@@ -3200,7 +3252,7 @@
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
@@ -3227,7 +3279,7 @@
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
@@ -3241,7 +3293,7 @@
       <c r="D63" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F63" s="15"/>
@@ -3379,8 +3431,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3391,7 +3443,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3421,16 +3473,16 @@
     </row>
     <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3461,10 +3513,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3495,10 +3547,10 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3531,10 +3583,10 @@
         <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3567,10 +3619,10 @@
         <v>110</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3603,10 +3655,10 @@
         <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3639,10 +3691,10 @@
         <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3675,10 +3727,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3711,10 +3763,10 @@
         <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3747,10 +3799,10 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3783,10 +3835,10 @@
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3819,10 +3871,10 @@
         <v>76</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3855,10 +3907,10 @@
         <v>76</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3891,10 +3943,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3927,10 +3979,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3963,10 +4015,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3999,10 +4051,10 @@
         <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4035,10 +4087,10 @@
         <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4071,10 +4123,10 @@
         <v>110</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4107,10 +4159,10 @@
         <v>110</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4143,10 +4195,10 @@
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4179,10 +4231,10 @@
         <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4215,10 +4267,10 @@
         <v>101</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4251,10 +4303,10 @@
         <v>110</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4287,10 +4339,10 @@
         <v>76</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4323,10 +4375,10 @@
         <v>101</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4359,10 +4411,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4395,10 +4447,10 @@
         <v>110</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4431,10 +4483,10 @@
         <v>110</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4467,10 +4519,10 @@
         <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -4503,10 +4555,10 @@
         <v>76</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -4539,10 +4591,10 @@
         <v>101</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4575,10 +4627,10 @@
         <v>110</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4611,10 +4663,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4647,10 +4699,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4683,10 +4735,10 @@
         <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4719,10 +4771,10 @@
         <v>76</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4755,10 +4807,10 @@
         <v>101</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4791,10 +4843,10 @@
         <v>110</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4827,10 +4879,10 @@
         <v>110</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4863,10 +4915,10 @@
         <v>110</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4899,10 +4951,10 @@
         <v>101</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4935,10 +4987,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4971,10 +5023,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5007,10 +5059,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5039,14 +5091,14 @@
       <c r="A47" s="8">
         <v>44098</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -5079,10 +5131,10 @@
         <v>101</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5115,10 +5167,10 @@
         <v>110</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -5151,10 +5203,10 @@
         <v>110</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5187,10 +5239,10 @@
         <v>42</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -5223,10 +5275,10 @@
         <v>42</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -5259,10 +5311,10 @@
         <v>76</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -5295,10 +5347,10 @@
         <v>76</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -5331,10 +5383,10 @@
         <v>94</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -5367,10 +5419,10 @@
         <v>101</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -5403,10 +5455,10 @@
         <v>101</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -5439,10 +5491,10 @@
         <v>110</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -5475,10 +5527,10 @@
         <v>110</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -5511,10 +5563,10 @@
         <v>42</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -5547,10 +5599,10 @@
         <v>76</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -5579,14 +5631,14 @@
       <c r="A62" s="8">
         <v>44098</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>165</v>
+      <c r="C62" s="37" t="s">
+        <v>166</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -5612,17 +5664,17 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="12.75">
-      <c r="A63" s="8">
+      <c r="A63" s="35">
         <v>44098</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>130</v>
+      <c r="C63" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -5648,17 +5700,17 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="12.75">
-      <c r="A64" s="8">
+      <c r="A64" s="35">
         <v>44098</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>130</v>
+      <c r="C64" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -5687,14 +5739,14 @@
       <c r="A65" s="8">
         <v>44098</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>166</v>
+      <c r="C65" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -5720,17 +5772,17 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="12.75">
-      <c r="A66" s="8">
+      <c r="A66" s="35">
         <v>44098</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>130</v>
+      <c r="C66" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -5756,17 +5808,17 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="12.75">
-      <c r="A67" s="8">
+      <c r="A67" s="35">
         <v>44098</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>130</v>
+      <c r="C67" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -5792,10 +5844,18 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="12.75">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="35">
+        <v>44098</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>131</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -5820,10 +5880,18 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="12.75">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="35">
+        <v>44098</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>131</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -5848,10 +5916,18 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="12.75">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="35">
+        <v>44098</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>131</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -5876,10 +5952,18 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="12.75">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="35">
+        <v>44098</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>131</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -5904,10 +5988,18 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="12.75">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="35">
+        <v>44098</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>131</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="802" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83900F73-17EF-4A92-BFCE-011727CD130B}"/>
+  <xr:revisionPtr revIDLastSave="803" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88E63D2A-915E-4863-9707-66041275E236}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記入例" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="168">
   <si>
     <t>テーブル名</t>
   </si>
@@ -801,9 +801,6 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>timestampではDEFAULT NULLを指定できなかったためNULLを許容するよう定義した。</t>
-  </si>
-  <si>
     <t>完了フラグ</t>
   </si>
   <si>
@@ -1780,8 +1777,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3224,9 +3221,7 @@
       <c r="J60" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K60" s="18" t="s">
-        <v>119</v>
-      </c>
+      <c r="K60" s="18"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="24"/>
@@ -3234,10 +3229,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>66</v>
@@ -3252,7 +3247,7 @@
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
@@ -3279,7 +3274,7 @@
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
@@ -3431,8 +3426,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:C64"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3443,7 +3438,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3473,16 +3468,16 @@
     </row>
     <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3513,10 +3508,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3547,10 +3542,10 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3583,10 +3578,10 @@
         <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3619,10 +3614,10 @@
         <v>110</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3655,10 +3650,10 @@
         <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3691,10 +3686,10 @@
         <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3727,10 +3722,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3763,10 +3758,10 @@
         <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3799,10 +3794,10 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3835,10 +3830,10 @@
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3871,10 +3866,10 @@
         <v>76</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3907,10 +3902,10 @@
         <v>76</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3943,10 +3938,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3979,10 +3974,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4015,10 +4010,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4051,10 +4046,10 @@
         <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4087,10 +4082,10 @@
         <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4123,10 +4118,10 @@
         <v>110</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4159,10 +4154,10 @@
         <v>110</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4195,10 +4190,10 @@
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4231,10 +4226,10 @@
         <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4267,10 +4262,10 @@
         <v>101</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4303,10 +4298,10 @@
         <v>110</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4339,10 +4334,10 @@
         <v>76</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4375,10 +4370,10 @@
         <v>101</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4411,10 +4406,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4447,10 +4442,10 @@
         <v>110</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4483,10 +4478,10 @@
         <v>110</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4519,10 +4514,10 @@
         <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -4555,10 +4550,10 @@
         <v>76</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -4591,10 +4586,10 @@
         <v>101</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4627,10 +4622,10 @@
         <v>110</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4663,10 +4658,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4699,10 +4694,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4735,10 +4730,10 @@
         <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4771,10 +4766,10 @@
         <v>76</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4807,10 +4802,10 @@
         <v>101</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4843,10 +4838,10 @@
         <v>110</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4879,10 +4874,10 @@
         <v>110</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4915,10 +4910,10 @@
         <v>110</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4951,10 +4946,10 @@
         <v>101</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4987,10 +4982,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5023,10 +5018,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5059,10 +5054,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5095,10 +5090,10 @@
         <v>76</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -5131,10 +5126,10 @@
         <v>101</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5167,10 +5162,10 @@
         <v>110</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -5203,10 +5198,10 @@
         <v>110</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5239,10 +5234,10 @@
         <v>42</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -5275,10 +5270,10 @@
         <v>42</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -5311,10 +5306,10 @@
         <v>76</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -5347,10 +5342,10 @@
         <v>76</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -5383,10 +5378,10 @@
         <v>94</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -5419,10 +5414,10 @@
         <v>101</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -5455,10 +5450,10 @@
         <v>101</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -5491,10 +5486,10 @@
         <v>110</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -5527,10 +5522,10 @@
         <v>110</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -5563,10 +5558,10 @@
         <v>42</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -5599,10 +5594,10 @@
         <v>76</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -5635,10 +5630,10 @@
         <v>101</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -5671,10 +5666,10 @@
         <v>110</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -5707,10 +5702,10 @@
         <v>42</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -5743,10 +5738,10 @@
         <v>76</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -5779,10 +5774,10 @@
         <v>101</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -5815,10 +5810,10 @@
         <v>110</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -5851,10 +5846,10 @@
         <v>42</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -5887,10 +5882,10 @@
         <v>76</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -5923,10 +5918,10 @@
         <v>94</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -5959,10 +5954,10 @@
         <v>101</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -5995,10 +5990,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23322"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="803" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88E63D2A-915E-4863-9707-66041275E236}"/>
+  <xr:revisionPtr revIDLastSave="821" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D2E696C-F9B1-49A8-B87C-B8A2DECFB396}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="171">
   <si>
     <t>テーブル名</t>
   </si>
@@ -726,7 +726,7 @@
     <t>update_user_id</t>
   </si>
   <si>
-    <t>rooms</t>
+    <t>users_chatrooms</t>
   </si>
   <si>
     <t>中間テーブル</t>
@@ -858,6 +858,9 @@
     <t>delete_flagをis_deleteに変更,外部キーの追加</t>
   </si>
   <si>
+    <t>rooms</t>
+  </si>
+  <si>
     <t>datetimeからtimestampに変更,NOT NULLの追加</t>
   </si>
   <si>
@@ -946,6 +949,12 @@
   </si>
   <si>
     <t>timestampからdatetimeに変更</t>
+  </si>
+  <si>
+    <t>booleanのデフォルト値をFALSEに変更</t>
+  </si>
+  <si>
+    <t>テーブル名をroomsからusers_chatroomsに変更</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1135,11 +1144,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1186,9 +1217,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1198,14 +1241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1444,61 +1479,61 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1529,11 +1564,11 @@
       <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -1561,11 +1596,11 @@
         <v>20</v>
       </c>
       <c r="K5" s="18"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1589,11 +1624,11 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1615,11 +1650,11 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1647,11 +1682,11 @@
       <c r="K8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="24"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1673,11 +1708,11 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1701,11 +1736,11 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1727,11 +1762,11 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1755,8 +1790,8 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1777,8 +1812,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1794,53 +1829,53 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +1908,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -1897,13 +1932,13 @@
       <c r="I5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1929,7 +1964,7 @@
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1955,7 +1990,7 @@
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1981,7 +2016,7 @@
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2007,7 +2042,7 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2033,7 +2068,7 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -2058,7 +2093,7 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2073,7 +2108,7 @@
         <v>66</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -2086,7 +2121,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2097,7 +2132,7 @@
       <c r="D13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="15"/>
@@ -2112,7 +2147,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2123,7 +2158,7 @@
       <c r="D14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="15"/>
@@ -2140,69 +2175,69 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2235,7 +2270,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="5">
         <v>1</v>
       </c>
@@ -2258,13 +2293,13 @@
       <c r="I20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="5">
         <v>2</v>
       </c>
@@ -2289,7 +2324,7 @@
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="5">
         <v>3</v>
       </c>
@@ -2314,7 +2349,7 @@
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="24"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="5">
         <v>4</v>
       </c>
@@ -2328,8 +2363,8 @@
         <v>66</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="26" t="s">
-        <v>72</v>
+      <c r="G23" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>47</v>
@@ -2341,7 +2376,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="5">
         <v>5</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="16" t="s">
@@ -2368,7 +2403,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="24"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="5">
         <v>6</v>
       </c>
@@ -2382,7 +2417,7 @@
         <v>66</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -2395,7 +2430,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="24"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="5">
         <v>7</v>
       </c>
@@ -2405,7 +2440,7 @@
       <c r="D26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="31" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="15"/>
@@ -2420,7 +2455,7 @@
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="24"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="5">
         <v>8</v>
       </c>
@@ -2474,7 +2509,7 @@
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="24"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="5">
         <v>10</v>
       </c>
@@ -2501,71 +2536,71 @@
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2687,7 @@
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="5">
         <v>3</v>
       </c>
@@ -2677,69 +2712,69 @@
       <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="24"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2772,7 +2807,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="24"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="5">
         <v>1</v>
       </c>
@@ -2795,13 +2830,13 @@
       <c r="I43" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="J43" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K43" s="18"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="24"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="5">
         <v>2</v>
       </c>
@@ -2828,7 +2863,7 @@
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="5">
         <v>3</v>
       </c>
@@ -2853,7 +2888,7 @@
       <c r="K45" s="18"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A46" s="24"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="5">
         <v>4</v>
       </c>
@@ -2878,7 +2913,7 @@
       <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="24"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="5">
         <v>5</v>
       </c>
@@ -2892,7 +2927,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H47" s="16" t="s">
@@ -2915,7 +2950,7 @@
       <c r="D48" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="31" t="s">
         <v>71</v>
       </c>
       <c r="F48" s="15"/>
@@ -2984,7 +3019,7 @@
       <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="24"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="5">
         <v>9</v>
       </c>
@@ -3011,54 +3046,54 @@
       <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="24"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -3091,7 +3126,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="24"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="5">
         <v>1</v>
       </c>
@@ -3114,13 +3149,13 @@
       <c r="I56" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J56" s="32" t="s">
+      <c r="J56" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="18"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="24"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="5">
         <v>2</v>
       </c>
@@ -3147,7 +3182,7 @@
       <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A58" s="24"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="5">
         <v>3</v>
       </c>
@@ -3172,7 +3207,7 @@
       <c r="K58" s="18"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A59" s="24"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="5">
         <v>4</v>
       </c>
@@ -3199,7 +3234,7 @@
       <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="5">
         <v>5</v>
       </c>
@@ -3218,13 +3253,13 @@
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="18"/>
-      <c r="J60" s="32" t="s">
+      <c r="J60" s="25" t="s">
         <v>49</v>
       </c>
       <c r="K60" s="18"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A61" s="24"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="5">
         <v>6</v>
       </c>
@@ -3251,7 +3286,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62" s="24"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="5">
         <v>7</v>
       </c>
@@ -3265,7 +3300,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H62" s="16" t="s">
@@ -3278,7 +3313,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A63" s="24"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="5">
         <v>8</v>
       </c>
@@ -3288,7 +3323,7 @@
       <c r="D63" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="31" t="s">
         <v>71</v>
       </c>
       <c r="F63" s="15"/>
@@ -3303,7 +3338,7 @@
       <c r="K63" s="18"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A64" s="24"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="5">
         <v>9</v>
       </c>
@@ -3330,7 +3365,7 @@
       <c r="K64" s="18"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A65" s="24"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="5">
         <v>10</v>
       </c>
@@ -3357,7 +3392,7 @@
       <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A66" s="24"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="5">
         <v>11</v>
       </c>
@@ -3384,17 +3419,17 @@
       <c r="K66" s="18"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3426,8 +3461,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3827,10 +3862,10 @@
         <v>44092</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>130</v>
@@ -3866,7 +3901,7 @@
         <v>76</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>130</v>
@@ -3902,7 +3937,7 @@
         <v>76</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>130</v>
@@ -3938,7 +3973,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>130</v>
@@ -3974,7 +4009,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>130</v>
@@ -4010,7 +4045,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>130</v>
@@ -4046,7 +4081,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>130</v>
@@ -4082,7 +4117,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>130</v>
@@ -4118,7 +4153,7 @@
         <v>110</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>130</v>
@@ -4154,7 +4189,7 @@
         <v>110</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>130</v>
@@ -4190,7 +4225,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>130</v>
@@ -4226,7 +4261,7 @@
         <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>130</v>
@@ -4262,7 +4297,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>130</v>
@@ -4298,7 +4333,7 @@
         <v>110</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>130</v>
@@ -4334,7 +4369,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>130</v>
@@ -4370,7 +4405,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>130</v>
@@ -4406,7 +4441,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>130</v>
@@ -4442,7 +4477,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>130</v>
@@ -4478,7 +4513,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>130</v>
@@ -4514,7 +4549,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>130</v>
@@ -4550,7 +4585,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>130</v>
@@ -4582,11 +4617,11 @@
       <c r="A33" s="8">
         <v>44098</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="31" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>130</v>
@@ -4622,7 +4657,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>130</v>
@@ -4658,7 +4693,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>130</v>
@@ -4694,7 +4729,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>130</v>
@@ -4730,7 +4765,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>130</v>
@@ -4766,7 +4801,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>130</v>
@@ -4802,7 +4837,7 @@
         <v>101</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>130</v>
@@ -4837,8 +4872,8 @@
       <c r="B40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>153</v>
+      <c r="C40" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>130</v>
@@ -4874,7 +4909,7 @@
         <v>110</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>130</v>
@@ -4910,7 +4945,7 @@
         <v>110</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>130</v>
@@ -4946,7 +4981,7 @@
         <v>101</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>130</v>
@@ -4982,7 +5017,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>130</v>
@@ -5018,7 +5053,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>130</v>
@@ -5054,7 +5089,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>130</v>
@@ -5090,7 +5125,7 @@
         <v>76</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>130</v>
@@ -5126,7 +5161,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>130</v>
@@ -5162,7 +5197,7 @@
         <v>110</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>130</v>
@@ -5198,7 +5233,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>130</v>
@@ -5234,7 +5269,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>130</v>
@@ -5270,7 +5305,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>130</v>
@@ -5306,7 +5341,7 @@
         <v>76</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>130</v>
@@ -5342,7 +5377,7 @@
         <v>76</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>130</v>
@@ -5375,10 +5410,10 @@
         <v>44098</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>130</v>
@@ -5414,7 +5449,7 @@
         <v>101</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>130</v>
@@ -5450,7 +5485,7 @@
         <v>101</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>130</v>
@@ -5486,7 +5521,7 @@
         <v>110</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>130</v>
@@ -5522,7 +5557,7 @@
         <v>110</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>130</v>
@@ -5558,7 +5593,7 @@
         <v>42</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>130</v>
@@ -5594,7 +5629,7 @@
         <v>76</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>130</v>
@@ -5626,11 +5661,11 @@
       <c r="A62" s="8">
         <v>44098</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="37" t="s">
-        <v>165</v>
+      <c r="C62" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>130</v>
@@ -5659,16 +5694,16 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="12.75">
-      <c r="A63" s="35">
+      <c r="A63" s="28">
         <v>44098</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E63" s="3"/>
@@ -5695,16 +5730,16 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="12.75">
-      <c r="A64" s="35">
+      <c r="A64" s="28">
         <v>44098</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E64" s="3"/>
@@ -5734,11 +5769,11 @@
       <c r="A65" s="8">
         <v>44098</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="34" t="s">
-        <v>166</v>
+      <c r="C65" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>130</v>
@@ -5767,16 +5802,16 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="12.75">
-      <c r="A66" s="35">
+      <c r="A66" s="28">
         <v>44098</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E66" s="3"/>
@@ -5803,16 +5838,16 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="12.75">
-      <c r="A67" s="35">
+      <c r="A67" s="28">
         <v>44098</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E67" s="3"/>
@@ -5839,16 +5874,16 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="12.75">
-      <c r="A68" s="35">
+      <c r="A68" s="28">
         <v>44098</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E68" s="3"/>
@@ -5875,16 +5910,16 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="12.75">
-      <c r="A69" s="35">
+      <c r="A69" s="28">
         <v>44098</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E69" s="3"/>
@@ -5911,16 +5946,16 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="12.75">
-      <c r="A70" s="35">
+      <c r="A70" s="28">
         <v>44098</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E70" s="3"/>
@@ -5947,16 +5982,16 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="12.75">
-      <c r="A71" s="35">
+      <c r="A71" s="28">
         <v>44098</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E71" s="3"/>
@@ -5983,16 +6018,16 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="12.75">
-      <c r="A72" s="35">
+      <c r="A72" s="33">
         <v>44098</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="36" t="s">
+      <c r="C72" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="34" t="s">
         <v>130</v>
       </c>
       <c r="E72" s="3"/>
@@ -6019,10 +6054,18 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="12.75">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="33">
+        <v>44098</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -6047,10 +6090,18 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="12.75">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="33">
+        <v>44098</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
